--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>type</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>deviceId</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1356,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1597,6 +1609,23 @@
       </c>
       <c r="I10" s="5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1353,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1624,8 +1621,8 @@
       <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>54</v>
+      <c r="M11" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
 </sst>
 </file>
@@ -243,12 +258,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -613,7 +634,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -661,6 +682,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1347,13 +1374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1485,34 +1512,29 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1535,115 +1557,132 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="5" t="b">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="5" t="b">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="5" t="b">
+      <c r="M8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
+      <c r="A10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="K10" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="5" t="b">
+      <c r="M13" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
@@ -1656,37 +1695,39 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1699,13 +1740,12 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1714,16 +1754,17 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1732,7 +1773,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1763,7 +1804,6 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -1773,7 +1813,6 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -1793,6 +1832,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1804,20 +1844,33 @@
       <c r="G30" s="2"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="3"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I53" s="3"/>
@@ -1828,11 +1881,11 @@
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I74" s="3"/>
@@ -1844,11 +1897,9 @@
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -1856,10 +1907,18 @@
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I82" s="3"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>field-list</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${locationId},'_LOCATION_',${hierarchyId},'_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1376,11 +1382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2362,15 +2368,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2380,8 +2386,11 @@
       <c r="C1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2390,6 +2399,9 @@
       </c>
       <c r="C2" t="s">
         <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/location_registration.xlsx
+++ b/xforms/xlsforms/location_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25605" yWindow="-135" windowWidth="15600" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>type</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Location registration</t>
-  </si>
-  <si>
-    <t>${locationId}</t>
   </si>
   <si>
     <t>deviceId</t>
@@ -1382,11 +1379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1503,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1520,13 +1517,13 @@
     </row>
     <row r="5" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -1534,7 +1531,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -1613,10 +1610,10 @@
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1635,9 +1632,6 @@
       <c r="I10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1675,16 +1669,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="5" t="b">
         <v>1</v>
@@ -2370,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2387,7 +2381,7 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2401,7 +2395,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
